--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>23-27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,26 +637,26 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,37 +696,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,26 +737,26 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Stick movement detected</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Panorama has stopped</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,15 +796,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Stick movement detected</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Panorama has stopped</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Capture Failed Stick movement detected Panorama has stopped</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0-7</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-27</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,26 +637,26 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-27</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,37 +696,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,26 +737,26 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
+          <t>Stick movement detected</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Panorama has stopped</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,65 +796,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stick movement detected</t>
+          <t>Capture Failed Stick movement detected Panorama has stopped</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Panorama has stopped</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>False</t>
         </is>
